--- a/data/SLIC_ALC.xlsx
+++ b/data/SLIC_ALC.xlsx
@@ -5,30 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\TMI\Dashboards-QP\SLIC-COR13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\TMI\Dashboards-QP\SLIC-COR13\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5CD30B-0F41-4AD1-9CAF-37A147C88345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82F7CF-9029-4D50-802A-84FCC408CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkStatus" sheetId="1" r:id="rId1"/>
     <sheet name="Designation" sheetId="3" r:id="rId2"/>
     <sheet name="Gender" sheetId="2" r:id="rId3"/>
     <sheet name="Education" sheetId="4" r:id="rId4"/>
-    <sheet name="Resume" sheetId="5" r:id="rId5"/>
-    <sheet name="Experience" sheetId="6" r:id="rId6"/>
-    <sheet name="Age" sheetId="7" r:id="rId7"/>
-    <sheet name="State" sheetId="8" r:id="rId8"/>
-    <sheet name="City" sheetId="9" r:id="rId9"/>
+    <sheet name="Experience" sheetId="6" r:id="rId5"/>
+    <sheet name="Age" sheetId="7" r:id="rId6"/>
+    <sheet name="State" sheetId="8" r:id="rId7"/>
+    <sheet name="City" sheetId="9" r:id="rId8"/>
+    <sheet name="Resume (Do not include)" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="104">
   <si>
     <t>Category</t>
   </si>
@@ -532,7 +532,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,9 +633,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1060,7 @@
       <c r="C2" s="15">
         <v>162</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0.77156670374989156</v>
       </c>
       <c r="E2" s="16">
@@ -1120,18 +1117,10 @@
       <c r="V2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1200,18 +1189,10 @@
       <c r="V3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,19 +1206,31 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="118.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="106.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="74.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="90.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,18 +1368,10 @@
       <c r="V2" s="28">
         <v>5.9786028949024544E-2</v>
       </c>
-      <c r="W2" s="28">
-        <v>0.59974826935179359</v>
-      </c>
-      <c r="X2" s="28">
-        <v>0.28130899937067338</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>0.12334801762114538</v>
-      </c>
-      <c r="Z2" s="28">
-        <v>5.9786028949024544E-2</v>
-      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -1455,18 +1440,10 @@
       <c r="V3" s="28">
         <v>0.15320910973084886</v>
       </c>
-      <c r="W3" s="28">
-        <v>0.73291925465838514</v>
-      </c>
-      <c r="X3" s="28">
-        <v>0.41200828157349895</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>0.15320910973084886</v>
-      </c>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -1535,18 +1512,10 @@
       <c r="V4" s="28">
         <v>0</v>
       </c>
-      <c r="W4" s="28">
-        <v>0.38983050847457629</v>
-      </c>
-      <c r="X4" s="28">
-        <v>0.15254237288135594</v>
-      </c>
-      <c r="Y4" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="28">
-        <v>0</v>
-      </c>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
@@ -1615,18 +1584,10 @@
       <c r="V5" s="28">
         <v>4.261363636363636E-2</v>
       </c>
-      <c r="W5" s="28">
-        <v>0.56534090909090906</v>
-      </c>
-      <c r="X5" s="28">
-        <v>0.23295454545454544</v>
-      </c>
-      <c r="Y5" s="28">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="Z5" s="28">
-        <v>4.261363636363636E-2</v>
-      </c>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
@@ -1695,18 +1656,10 @@
       <c r="V6" s="28">
         <v>0.21897810218978103</v>
       </c>
-      <c r="W6" s="28">
-        <v>0.84671532846715325</v>
-      </c>
-      <c r="X6" s="28">
-        <v>0.49635036496350365</v>
-      </c>
-      <c r="Y6" s="28">
-        <v>0.36496350364963503</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>0.21897810218978103</v>
-      </c>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -1775,18 +1728,10 @@
       <c r="V7" s="28">
         <v>0</v>
       </c>
-      <c r="W7" s="28">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="X7" s="28">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="Y7" s="28">
-        <v>1.0752688172043012E-2</v>
-      </c>
-      <c r="Z7" s="28">
-        <v>0</v>
-      </c>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -1855,18 +1800,10 @@
       <c r="V8" s="28">
         <v>0</v>
       </c>
-      <c r="W8" s="28">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="X8" s="28">
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="Y8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="28">
-        <v>0</v>
-      </c>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
     </row>
     <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
@@ -1935,18 +1872,10 @@
       <c r="V9" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W9" s="28">
-        <v>1</v>
-      </c>
-      <c r="X9" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="28">
-        <v>0.75</v>
-      </c>
-      <c r="Z9" s="28">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1970,10 +1899,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z3"/>
+      <selection activeCell="D2" sqref="D2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1914,7 @@
     <col min="15" max="18" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +1982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2069,71 +1998,59 @@
       <c r="E2" s="16">
         <v>6.0147205482804234</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="22">
         <v>8.1361980330932129E-2</v>
       </c>
       <c r="G2" s="17">
         <v>73.925444339187891</v>
       </c>
-      <c r="H2" s="16">
-        <v>0.29461718692487826</v>
-      </c>
-      <c r="I2" s="16">
-        <v>6.0147205482804234</v>
-      </c>
-      <c r="J2" s="22">
-        <v>8.1361980330932129E-2</v>
+      <c r="H2" s="17">
+        <v>1.8314823756639305</v>
+      </c>
+      <c r="I2" s="17">
+        <v>3.794539848954491</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1354</v>
       </c>
       <c r="K2" s="17">
-        <v>73.925444339187891</v>
-      </c>
-      <c r="L2" s="17">
-        <v>1.8314823756639305</v>
-      </c>
-      <c r="M2" s="17">
-        <v>3.794539848954491</v>
-      </c>
-      <c r="N2" s="18">
-        <v>1354</v>
+        <v>4.5480444229840655</v>
+      </c>
+      <c r="L2" s="19">
+        <v>8.8730158730158735</v>
+      </c>
+      <c r="M2" s="16">
+        <v>0.65838509316770188</v>
+      </c>
+      <c r="N2" s="22">
+        <v>0.93943870014771047</v>
       </c>
       <c r="O2" s="17">
-        <v>4.5480444229840655</v>
-      </c>
-      <c r="P2" s="19">
-        <v>8.8730158730158735</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>0.65838509316770188</v>
-      </c>
-      <c r="R2" s="22">
-        <v>0.93943870014771047</v>
-      </c>
-      <c r="S2" s="17">
         <v>3.7791728212703104</v>
       </c>
-      <c r="T2" s="22">
+      <c r="P2" s="22">
         <v>0.11396249507230494</v>
       </c>
-      <c r="U2" s="17">
+      <c r="Q2" s="17">
         <v>3.2081123690751192</v>
       </c>
-      <c r="V2" s="27">
+      <c r="R2" s="27">
         <v>3.348488857248904</v>
       </c>
-      <c r="W2" s="28">
+      <c r="S2" s="28">
         <v>0.60598744567841623</v>
       </c>
-      <c r="X2" s="28">
+      <c r="T2" s="28">
         <v>0.28392081120231771</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="U2" s="28">
         <v>0.14147754707870594</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="V2" s="28">
         <v>7.4843070980202805E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2149,67 +2066,55 @@
       <c r="E3" s="16">
         <v>4.7473166114946705</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="22">
         <v>8.7187753329695222E-2</v>
       </c>
       <c r="G3" s="17">
         <v>54.449351315923685</v>
       </c>
-      <c r="H3" s="16">
-        <v>0.412140441903873</v>
-      </c>
-      <c r="I3" s="16">
-        <v>4.7473166114946705</v>
-      </c>
-      <c r="J3" s="22">
-        <v>8.7187753329695222E-2</v>
+      <c r="H3" s="17">
+        <v>1.7303703703703703</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5.5178762275690501</v>
+      </c>
+      <c r="J3" s="18">
+        <v>380</v>
       </c>
       <c r="K3" s="17">
-        <v>54.449351315923685</v>
-      </c>
-      <c r="L3" s="17">
-        <v>1.7303703703703703</v>
-      </c>
-      <c r="M3" s="17">
-        <v>5.5178762275690501</v>
-      </c>
-      <c r="N3" s="18">
-        <v>380</v>
+        <v>5.1555555555555559</v>
+      </c>
+      <c r="L3" s="19">
+        <v>8.1351351351351351</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0.52418096723868957</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0.88421052631578945</v>
       </c>
       <c r="O3" s="17">
-        <v>5.1555555555555559</v>
-      </c>
-      <c r="P3" s="19">
-        <v>8.1351351351351351</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0.52418096723868957</v>
-      </c>
-      <c r="R3" s="22">
-        <v>0.88421052631578945</v>
-      </c>
-      <c r="S3" s="17">
         <v>4.2921052631578949</v>
       </c>
-      <c r="T3" s="22">
+      <c r="P3" s="22">
         <v>0.1295618979794263</v>
       </c>
-      <c r="U3" s="17">
+      <c r="Q3" s="17">
         <v>3.0307426106289217</v>
       </c>
-      <c r="V3" s="27">
+      <c r="R3" s="27">
         <v>3.7360119589356731</v>
       </c>
-      <c r="W3" s="28">
+      <c r="S3" s="28">
         <v>0.67555555555555558</v>
       </c>
-      <c r="X3" s="28">
+      <c r="T3" s="28">
         <v>0.35555555555555557</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="U3" s="28">
         <v>0.17481481481481481</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="V3" s="28">
         <v>9.9259259259259255E-2</v>
       </c>
     </row>
@@ -2223,10 +2128,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V9"/>
+      <selection activeCell="W2" sqref="W2:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2149,7 @@
     <col min="18" max="18" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>31</v>
       </c>
@@ -2379,20 +2284,8 @@
       <c r="V2" s="28">
         <v>0.19540229885057472</v>
       </c>
-      <c r="W2" s="28">
-        <v>0.5977011494252874</v>
-      </c>
-      <c r="X2" s="28">
-        <v>0.36398467432950193</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>0.26245210727969348</v>
-      </c>
-      <c r="Z2" s="28">
-        <v>0.19540229885057472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
@@ -2459,20 +2352,8 @@
       <c r="V3" s="28">
         <v>0.05</v>
       </c>
-      <c r="W3" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="X3" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0.125</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>77</v>
       </c>
@@ -2539,20 +2420,8 @@
       <c r="V4" s="28">
         <v>7.098765432098765E-2</v>
       </c>
-      <c r="W4" s="28">
-        <v>0.63271604938271608</v>
-      </c>
-      <c r="X4" s="28">
-        <v>0.27469135802469136</v>
-      </c>
-      <c r="Y4" s="28">
-        <v>0.10493827160493827</v>
-      </c>
-      <c r="Z4" s="28">
-        <v>7.098765432098765E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -2619,20 +2488,8 @@
       <c r="V5" s="28">
         <v>5.6795131845841784E-2</v>
       </c>
-      <c r="W5" s="28">
-        <v>0.59634888438133871</v>
-      </c>
-      <c r="X5" s="28">
-        <v>0.25760649087221094</v>
-      </c>
-      <c r="Y5" s="28">
-        <v>0.13387423935091278</v>
-      </c>
-      <c r="Z5" s="28">
-        <v>5.6795131845841784E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>78</v>
       </c>
@@ -2699,20 +2556,8 @@
       <c r="V6" s="28">
         <v>3.3519553072625698E-2</v>
       </c>
-      <c r="W6" s="28">
-        <v>0.6033519553072626</v>
-      </c>
-      <c r="X6" s="28">
-        <v>0.26815642458100558</v>
-      </c>
-      <c r="Y6" s="28">
-        <v>0.12849162011173185</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>3.3519553072625698E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -2779,20 +2624,8 @@
       <c r="V7" s="28">
         <v>4.807692307692308E-2</v>
       </c>
-      <c r="W7" s="28">
-        <v>0.66923076923076918</v>
-      </c>
-      <c r="X7" s="28">
-        <v>0.31538461538461537</v>
-      </c>
-      <c r="Y7" s="28">
-        <v>0.10961538461538461</v>
-      </c>
-      <c r="Z7" s="28">
-        <v>4.807692307692308E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>80</v>
       </c>
@@ -2859,20 +2692,8 @@
       <c r="V8" s="28">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="W8" s="28">
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="X8" s="28">
-        <v>0.3619047619047619</v>
-      </c>
-      <c r="Y8" s="28">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z8" s="28">
-        <v>2.8571428571428571E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>81</v>
       </c>
@@ -2939,20 +2760,8 @@
       <c r="V9" s="28">
         <v>4.9586776859504134E-2</v>
       </c>
-      <c r="W9" s="28">
-        <v>0.6198347107438017</v>
-      </c>
-      <c r="X9" s="28">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="Y9" s="28">
-        <v>0.1487603305785124</v>
-      </c>
-      <c r="Z9" s="28">
-        <v>4.9586776859504134E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2976,7 +2785,7 @@
       <c r="U10" s="28"/>
       <c r="V10" s="28"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3000,7 +2809,7 @@
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3030,27 +2839,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -3118,241 +2931,343 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2475</v>
-      </c>
-      <c r="C2" s="4">
-        <v>703</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.45639335177943291</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.8766291751777009</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.1219487859160495</v>
-      </c>
-      <c r="G2" s="5">
-        <v>15.3886663248094</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.52508610797046518</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2.8801306417192012</v>
-      </c>
-      <c r="J2" s="5">
-        <v>8.7757457187534346E-2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>32.819212566340333</v>
-      </c>
-      <c r="L2" s="5">
-        <v>6.7749029754204404</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2.2993691970415409</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1351</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8.52</v>
-      </c>
-      <c r="P2" s="5">
-        <v>10.056603773584911</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.32808080808080808</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0.60103626943005184</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15">
+        <v>800</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.1914326090110621</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1.710307614074698</v>
+      </c>
+      <c r="J2" s="18">
+        <v>702</v>
+      </c>
+      <c r="K2" s="17">
+        <v>2.7475000000000001</v>
+      </c>
+      <c r="L2" s="19">
+        <v>2.2142857142857144</v>
+      </c>
+      <c r="M2" s="36">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N2" s="22">
+        <v>1.0242165242165242</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2.7350427350427351</v>
+      </c>
+      <c r="P2" s="22">
+        <v>8.7706694550216097E-2</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>2.221538906742107</v>
+      </c>
+      <c r="R2" s="17">
+        <v>2.4951611772985545</v>
+      </c>
+      <c r="S2" s="28">
+        <v>0.47336561743341404</v>
+      </c>
+      <c r="T2" s="28">
+        <v>7.2639225181598058E-2</v>
+      </c>
+      <c r="U2" s="28">
+        <v>0</v>
+      </c>
+      <c r="V2" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>402</v>
-      </c>
-      <c r="C3" s="4">
-        <v>83</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.28987380331169582</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.8862274361597211</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.1399892845591664</v>
-      </c>
-      <c r="G3" s="5">
-        <v>13.474084406528331</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.31186080212832401</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3.2440585924890799</v>
-      </c>
-      <c r="J3" s="5">
-        <v>9.9237898716601061E-2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>32.689714659852989</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8.2291666666666661</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2.027210419674268</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15">
+        <v>546</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.28249240589505298</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.10342393162393163</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="17">
+        <v>3.7407245142657168</v>
+      </c>
+      <c r="J3" s="18">
+        <v>369</v>
+      </c>
+      <c r="K3" s="17">
+        <v>5.1794871794871797</v>
+      </c>
+      <c r="L3" s="19">
+        <v>6.4705882352941178</v>
+      </c>
+      <c r="M3" s="36">
+        <v>0.24542124542124541</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0.70460704607046065</v>
+      </c>
+      <c r="O3" s="17">
+        <v>4.7452574525745259</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0.13102862723460759</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>3.7163213848512644</v>
+      </c>
+      <c r="R3" s="17">
+        <v>4.123492882688895</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0.73665480427046259</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0.44306049822064059</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0.1494661921708185</v>
+      </c>
+      <c r="V3" s="28">
+        <v>1.0676156583629894E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15">
+        <v>559</v>
+      </c>
+      <c r="C4" s="15">
+        <v>140</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.4693511264532001</v>
+      </c>
+      <c r="E4" s="16">
+        <v>5.7359556295129721</v>
+      </c>
+      <c r="F4" s="22">
+        <v>8.4565884753807191E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>67.828245943524365</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="17">
+        <v>6.1955829247730341</v>
+      </c>
+      <c r="J4" s="18">
+        <v>302</v>
+      </c>
+      <c r="K4" s="17">
+        <v>7.6940966010733449</v>
+      </c>
+      <c r="L4" s="19">
+        <v>13.54054054054054</v>
+      </c>
+      <c r="M4" s="36">
+        <v>0.18067978533094811</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0.7814569536423841</v>
+      </c>
+      <c r="O4" s="17">
+        <v>5.4039735099337749</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0.14948545783936526</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>4.0828636943198324</v>
+      </c>
+      <c r="R4" s="17">
+        <v>4.5961580556495232</v>
+      </c>
+      <c r="S4" s="28">
+        <v>0.74957118353344765</v>
+      </c>
+      <c r="T4" s="28">
+        <v>0.48713550600343053</v>
+      </c>
+      <c r="U4" s="28">
+        <v>0.33276157804459694</v>
+      </c>
+      <c r="V4" s="28">
+        <v>0.241852487135506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15">
+        <v>203</v>
+      </c>
+      <c r="C5" s="15">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.32763082401161309</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="22">
+        <v>5.5015020833333338E-2</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="17">
+        <v>3.2460009998465935</v>
+      </c>
+      <c r="J5" s="18">
+        <v>98</v>
+      </c>
+      <c r="K5" s="17">
+        <v>6.2167487684729066</v>
+      </c>
+      <c r="L5" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="M5" s="36">
+        <v>9.3596059113300489E-2</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3.8877551020408165</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0.13916178057756984</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>4.1799502467849479</v>
+      </c>
+      <c r="R5" s="17">
+        <v>3.3467281795912851</v>
+      </c>
+      <c r="S5" s="28">
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="V5" s="28">
+        <v>0.1380952380952381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15">
+        <v>465</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.4239121518494704</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.9596695610353274</v>
+      </c>
+      <c r="F6" s="22">
+        <v>9.4045055614427567E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>31.470761984230045</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="17">
+        <v>3.1938855152337755</v>
+      </c>
+      <c r="J6" s="18">
         <v>263</v>
       </c>
-      <c r="O3" s="5">
-        <v>7.3656716417910451</v>
-      </c>
-      <c r="P3" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.4154228855721393</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0.63498098859315588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4">
-        <v>304</v>
-      </c>
-      <c r="C4" s="4">
-        <v>101</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.54685795625635458</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.597967438570445</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.1214809936932407</v>
-      </c>
-      <c r="G4" s="5">
-        <v>13.154053074389349</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.63229981024530679</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2.3540646165138459</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.1077163836614501</v>
-      </c>
-      <c r="K4" s="5">
-        <v>21.854285638780929</v>
-      </c>
-      <c r="L4" s="5">
-        <v>5.6481481481481479</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2.582766088187618</v>
-      </c>
-      <c r="N4" s="4">
-        <v>149</v>
-      </c>
-      <c r="O4" s="5">
-        <v>9.2105263157894743</v>
-      </c>
-      <c r="P4" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.51006711409395977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3854</v>
-      </c>
-      <c r="C6" s="4">
-        <v>683</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.30511173659318869</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.9102336404350599</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.10483209366623999</v>
-      </c>
-      <c r="G6" s="5">
-        <v>18.221840026555039</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.34909041143538933</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2.908006959480494</v>
-      </c>
-      <c r="J6" s="5">
-        <v>8.1180196021284678E-2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>35.821630175887258</v>
-      </c>
-      <c r="L6" s="5">
-        <v>7.6520618556701034</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1.439937325853309</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2406</v>
-      </c>
-      <c r="O6" s="5">
-        <v>6.9885832900882203</v>
-      </c>
-      <c r="P6" s="5">
-        <v>9.0731707317073162</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0.42527244421380378</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0.68121363258520362</v>
+      <c r="K6" s="17">
+        <v>4.956989247311828</v>
+      </c>
+      <c r="L6" s="19">
+        <v>6.6296296296296298</v>
+      </c>
+      <c r="M6" s="36">
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.91634980988593151</v>
+      </c>
+      <c r="O6" s="17">
+        <v>4.0456273764258555</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0.13386466070004871</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>2.8556612687891842</v>
+      </c>
+      <c r="R6" s="17">
+        <v>3.5040608403617801</v>
+      </c>
+      <c r="S6" s="28">
+        <v>0.62674650698602796</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0.28942115768463073</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0.16367265469061876</v>
+      </c>
+      <c r="V6" s="28">
+        <v>9.1816367265469059E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3361,580 +3276,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="17">
-        <v>1</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="28">
-        <v>0</v>
-      </c>
-      <c r="T2" s="28">
-        <v>0</v>
-      </c>
-      <c r="U2" s="28">
-        <v>0</v>
-      </c>
-      <c r="V2" s="28">
-        <v>0</v>
-      </c>
-      <c r="W2" s="28">
-        <v>0</v>
-      </c>
-      <c r="X2" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="15">
-        <v>800</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.1914326090110621</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1.710307614074698</v>
-      </c>
-      <c r="J3" s="18">
-        <v>702</v>
-      </c>
-      <c r="K3" s="17">
-        <v>2.7475000000000001</v>
-      </c>
-      <c r="L3" s="19">
-        <v>2.2142857142857144</v>
-      </c>
-      <c r="M3" s="37">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="N3" s="22">
-        <v>1.0242165242165242</v>
-      </c>
-      <c r="O3" s="17">
-        <v>2.7350427350427351</v>
-      </c>
-      <c r="P3" s="22">
-        <v>8.7706694550216097E-2</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>2.221538906742107</v>
-      </c>
-      <c r="R3" s="17">
-        <v>2.4951611772985545</v>
-      </c>
-      <c r="S3" s="28">
-        <v>0.47336561743341404</v>
-      </c>
-      <c r="T3" s="28">
-        <v>7.2639225181598058E-2</v>
-      </c>
-      <c r="U3" s="28">
-        <v>0</v>
-      </c>
-      <c r="V3" s="28">
-        <v>0</v>
-      </c>
-      <c r="W3" s="28">
-        <v>0.47336561743341404</v>
-      </c>
-      <c r="X3" s="28">
-        <v>7.2639225181598058E-2</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="15">
-        <v>546</v>
-      </c>
-      <c r="C4" s="15">
-        <v>5</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.28249240589505298</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.10342393162393163</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="17">
-        <v>3.7407245142657168</v>
-      </c>
-      <c r="J4" s="18">
-        <v>369</v>
-      </c>
-      <c r="K4" s="17">
-        <v>5.1794871794871797</v>
-      </c>
-      <c r="L4" s="19">
-        <v>6.4705882352941178</v>
-      </c>
-      <c r="M4" s="37">
-        <v>0.24542124542124541</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0.70460704607046065</v>
-      </c>
-      <c r="O4" s="17">
-        <v>4.7452574525745259</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0.13102862723460759</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>3.7163213848512644</v>
-      </c>
-      <c r="R4" s="17">
-        <v>4.123492882688895</v>
-      </c>
-      <c r="S4" s="28">
-        <v>0.73665480427046259</v>
-      </c>
-      <c r="T4" s="28">
-        <v>0.44306049822064059</v>
-      </c>
-      <c r="U4" s="28">
-        <v>0.1494661921708185</v>
-      </c>
-      <c r="V4" s="28">
-        <v>1.0676156583629894E-2</v>
-      </c>
-      <c r="W4" s="28">
-        <v>0.73665480427046259</v>
-      </c>
-      <c r="X4" s="28">
-        <v>0.44306049822064059</v>
-      </c>
-      <c r="Y4" s="28">
-        <v>0.1494661921708185</v>
-      </c>
-      <c r="Z4" s="28">
-        <v>1.0676156583629894E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="15">
-        <v>559</v>
-      </c>
-      <c r="C5" s="15">
-        <v>140</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.4693511264532001</v>
-      </c>
-      <c r="E5" s="16">
-        <v>5.7359556295129721</v>
-      </c>
-      <c r="F5" s="22">
-        <v>8.4565884753807191E-2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>67.828245943524365</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="17">
-        <v>6.1955829247730341</v>
-      </c>
-      <c r="J5" s="18">
-        <v>302</v>
-      </c>
-      <c r="K5" s="17">
-        <v>7.6940966010733449</v>
-      </c>
-      <c r="L5" s="19">
-        <v>13.54054054054054</v>
-      </c>
-      <c r="M5" s="37">
-        <v>0.18067978533094811</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0.7814569536423841</v>
-      </c>
-      <c r="O5" s="17">
-        <v>5.4039735099337749</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0.14948545783936526</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>4.0828636943198324</v>
-      </c>
-      <c r="R5" s="17">
-        <v>4.5961580556495232</v>
-      </c>
-      <c r="S5" s="28">
-        <v>0.74957118353344765</v>
-      </c>
-      <c r="T5" s="28">
-        <v>0.48713550600343053</v>
-      </c>
-      <c r="U5" s="28">
-        <v>0.33276157804459694</v>
-      </c>
-      <c r="V5" s="28">
-        <v>0.241852487135506</v>
-      </c>
-      <c r="W5" s="28">
-        <v>0.74957118353344765</v>
-      </c>
-      <c r="X5" s="28">
-        <v>0.48713550600343053</v>
-      </c>
-      <c r="Y5" s="28">
-        <v>0.33276157804459694</v>
-      </c>
-      <c r="Z5" s="28">
-        <v>0.241852487135506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="15">
-        <v>203</v>
-      </c>
-      <c r="C6" s="15">
-        <v>28</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.32763082401161309</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="22">
-        <v>5.5015020833333338E-2</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="17">
-        <v>3.2460009998465935</v>
-      </c>
-      <c r="J6" s="18">
-        <v>98</v>
-      </c>
-      <c r="K6" s="17">
-        <v>6.2167487684729066</v>
-      </c>
-      <c r="L6" s="19">
-        <v>7.8</v>
-      </c>
-      <c r="M6" s="37">
-        <v>9.3596059113300489E-2</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0.89795918367346939</v>
-      </c>
-      <c r="O6" s="17">
-        <v>3.8877551020408165</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0.13916178057756984</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>4.1799502467849479</v>
-      </c>
-      <c r="R6" s="17">
-        <v>3.3467281795912851</v>
-      </c>
-      <c r="S6" s="28">
-        <v>0.73809523809523814</v>
-      </c>
-      <c r="T6" s="28">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="U6" s="28">
-        <v>0.24285714285714285</v>
-      </c>
-      <c r="V6" s="28">
-        <v>0.1380952380952381</v>
-      </c>
-      <c r="W6" s="28">
-        <v>0.73809523809523814</v>
-      </c>
-      <c r="X6" s="28">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Y6" s="28">
-        <v>0.24285714285714285</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>0.1380952380952381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="15">
-        <v>465</v>
-      </c>
-      <c r="C7" s="15">
-        <v>45</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.4239121518494704</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2.9596695610353274</v>
-      </c>
-      <c r="F7" s="22">
-        <v>9.4045055614427567E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>31.470761984230045</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="17">
-        <v>3.1938855152337755</v>
-      </c>
-      <c r="J7" s="18">
-        <v>263</v>
-      </c>
-      <c r="K7" s="17">
-        <v>4.956989247311828</v>
-      </c>
-      <c r="L7" s="19">
-        <v>6.6296296296296298</v>
-      </c>
-      <c r="M7" s="37">
-        <v>0.13978494623655913</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0.91634980988593151</v>
-      </c>
-      <c r="O7" s="17">
-        <v>4.0456273764258555</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0.13386466070004871</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>2.8556612687891842</v>
-      </c>
-      <c r="R7" s="17">
-        <v>3.5040608403617801</v>
-      </c>
-      <c r="S7" s="28">
-        <v>0.62674650698602796</v>
-      </c>
-      <c r="T7" s="28">
-        <v>0.28942115768463073</v>
-      </c>
-      <c r="U7" s="28">
-        <v>0.16367265469061876</v>
-      </c>
-      <c r="V7" s="28">
-        <v>9.1816367265469059E-2</v>
-      </c>
-      <c r="W7" s="28">
-        <v>0.62674650698602796</v>
-      </c>
-      <c r="X7" s="28">
-        <v>0.28942115768463073</v>
-      </c>
-      <c r="Y7" s="28">
-        <v>0.16367265469061876</v>
-      </c>
-      <c r="Z7" s="28">
-        <v>9.1816367265469059E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3942,7 +3283,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,10 +3402,10 @@
       <c r="L2" s="19">
         <v>2.75</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="36">
         <v>0.6428571428571429</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="36">
         <v>1</v>
       </c>
       <c r="O2" s="17" t="s">
@@ -4129,10 +3470,10 @@
       <c r="L3" s="19">
         <v>8.8888888888888893</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="36">
         <v>0.69306930693069302</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="36">
         <v>0.94594594594594594</v>
       </c>
       <c r="O3" s="17">
@@ -4197,10 +3538,10 @@
       <c r="L4" s="19">
         <v>7.3636363636363633</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="36">
         <v>0.6970802919708029</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="36">
         <v>0.96954314720812185</v>
       </c>
       <c r="O4" s="17">
@@ -4265,10 +3606,10 @@
       <c r="L5" s="19">
         <v>7.625</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>0.70886075949367089</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="36">
         <v>0.96</v>
       </c>
       <c r="O5" s="17">
@@ -4333,10 +3674,10 @@
       <c r="L6" s="19">
         <v>8.9</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <v>0.63293310463121788</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="36">
         <v>0.94373401534526857</v>
       </c>
       <c r="O6" s="17">
@@ -4401,10 +3742,10 @@
       <c r="L7" s="19">
         <v>9.3541666666666661</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <v>0.57732793522267212</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <v>0.89572864321608037</v>
       </c>
       <c r="O7" s="17">
@@ -4457,12 +3798,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E9A734-D0D5-4433-B6F4-A7C2571F6462}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:Z18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,7 +3877,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="15">
@@ -4572,7 +3913,7 @@
       <c r="L2" s="19">
         <v>8.9130434782608692</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="36">
         <v>0.66034755134281198</v>
       </c>
       <c r="N2" s="22">
@@ -4608,7 +3949,7 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="15">
@@ -4644,7 +3985,7 @@
       <c r="L3" s="19">
         <v>10.1</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="36">
         <v>0.68464730290456433</v>
       </c>
       <c r="N3" s="22">
@@ -4680,7 +4021,7 @@
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="15">
@@ -4716,7 +4057,7 @@
       <c r="L4" s="19">
         <v>11.1875</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="36">
         <v>0.67303102625298328</v>
       </c>
       <c r="N4" s="22">
@@ -4752,7 +4093,7 @@
       <c r="Z4" s="28"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="15">
@@ -4788,7 +4129,7 @@
       <c r="L5" s="19">
         <v>6.5454545454545459</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>0.60681114551083593</v>
       </c>
       <c r="N5" s="22">
@@ -4824,7 +4165,7 @@
       <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="15">
@@ -4860,7 +4201,7 @@
       <c r="L6" s="19">
         <v>9.2666666666666675</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <v>0.67204301075268813</v>
       </c>
       <c r="N6" s="22">
@@ -4896,7 +4237,7 @@
       <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="15">
@@ -4932,7 +4273,7 @@
       <c r="L7" s="19">
         <v>3</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <v>0.67241379310344829</v>
       </c>
       <c r="N7" s="22">
@@ -4968,7 +4309,7 @@
       <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="15">
@@ -5004,7 +4345,7 @@
       <c r="L8" s="19">
         <v>12.5</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>0.43434343434343436</v>
       </c>
       <c r="N8" s="22">
@@ -5040,7 +4381,7 @@
       <c r="Z8" s="28"/>
     </row>
     <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="15">
@@ -5076,7 +4417,7 @@
       <c r="L9" s="19">
         <v>4.5</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <v>0.51162790697674421</v>
       </c>
       <c r="N9" s="22">
@@ -5112,7 +4453,7 @@
       <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="15">
@@ -5148,7 +4489,7 @@
       <c r="L10" s="19">
         <v>5.5</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="36">
         <v>0.18367346938775511</v>
       </c>
       <c r="N10" s="22">
@@ -5184,7 +4525,7 @@
       <c r="Z10" s="28"/>
     </row>
     <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="15">
@@ -5220,7 +4561,7 @@
       <c r="L11" s="19">
         <v>22</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <v>0.41463414634146339</v>
       </c>
       <c r="N11" s="22">
@@ -5256,7 +4597,7 @@
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="15">
@@ -5292,7 +4633,7 @@
       <c r="L12" s="19">
         <v>22</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="36">
         <v>0.51282051282051277</v>
       </c>
       <c r="N12" s="22">
@@ -5328,7 +4669,7 @@
       <c r="Z12" s="28"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="15">
@@ -5364,7 +4705,7 @@
       <c r="L13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="36">
         <v>0.58064516129032262</v>
       </c>
       <c r="N13" s="22">
@@ -5400,7 +4741,7 @@
       <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="15">
@@ -5436,7 +4777,7 @@
       <c r="L14" s="19">
         <v>1</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <v>0.30769230769230771</v>
       </c>
       <c r="N14" s="22">
@@ -5472,7 +4813,7 @@
       <c r="Z14" s="28"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="15">
@@ -5508,7 +4849,7 @@
       <c r="L15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="36">
         <v>0.21428571428571427</v>
       </c>
       <c r="N15" s="22">
@@ -5544,7 +4885,7 @@
       <c r="Z15" s="28"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="15">
@@ -5580,7 +4921,7 @@
       <c r="L16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <v>1</v>
       </c>
       <c r="N16" s="22">
@@ -5616,7 +4957,7 @@
       <c r="Z16" s="28"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="15">
@@ -5652,7 +4993,7 @@
       <c r="L17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="36">
         <v>0.3</v>
       </c>
       <c r="N17" s="22">
@@ -5688,7 +5029,7 @@
       <c r="Z17" s="28"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="15">
@@ -5724,7 +5065,7 @@
       <c r="L18" s="19">
         <v>8</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="36">
         <v>0.375</v>
       </c>
       <c r="N18" s="22">
@@ -5764,12 +5105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF24070C-720B-4096-9097-AB361F87556C}">
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V29"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5879,7 +5220,7 @@
       <c r="L2" s="19">
         <v>8.8571428571428577</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="36">
         <v>0.6275071633237822</v>
       </c>
       <c r="N2" s="22">
@@ -5947,7 +5288,7 @@
       <c r="L3" s="19">
         <v>10.6</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="36">
         <v>0.76470588235294112</v>
       </c>
       <c r="N3" s="22">
@@ -6015,7 +5356,7 @@
       <c r="L4" s="19">
         <v>10.6</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="36">
         <v>0.63076923076923075</v>
       </c>
       <c r="N4" s="22">
@@ -6083,7 +5424,7 @@
       <c r="L5" s="19">
         <v>8</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>0.87692307692307692</v>
       </c>
       <c r="N5" s="22">
@@ -6151,7 +5492,7 @@
       <c r="L6" s="19">
         <v>9.5</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <v>0.61904761904761907</v>
       </c>
       <c r="N6" s="22">
@@ -6219,7 +5560,7 @@
       <c r="L7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <v>0.5</v>
       </c>
       <c r="N7" s="22">
@@ -6287,7 +5628,7 @@
       <c r="L8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>0.75</v>
       </c>
       <c r="N8" s="22">
@@ -6355,7 +5696,7 @@
       <c r="L9" s="19">
         <v>15</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <v>0.58490566037735847</v>
       </c>
       <c r="N9" s="22">
@@ -6423,7 +5764,7 @@
       <c r="L10" s="19">
         <v>5</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="36">
         <v>0.73076923076923073</v>
       </c>
       <c r="N10" s="22">
@@ -6491,7 +5832,7 @@
       <c r="L11" s="19">
         <v>1</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <v>0.82978723404255317</v>
       </c>
       <c r="N11" s="22">
@@ -6559,7 +5900,7 @@
       <c r="L12" s="19">
         <v>6</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="36">
         <v>0.6875</v>
       </c>
       <c r="N12" s="22">
@@ -6627,7 +5968,7 @@
       <c r="L13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="36">
         <v>0.70454545454545459</v>
       </c>
       <c r="N13" s="22">
@@ -6695,7 +6036,7 @@
       <c r="L14" s="19">
         <v>6</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <v>0.65217391304347827</v>
       </c>
       <c r="N14" s="22">
@@ -6763,7 +6104,7 @@
       <c r="L15" s="19">
         <v>19.5</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="36">
         <v>0.66666666666666663</v>
       </c>
       <c r="N15" s="22">
@@ -6831,7 +6172,7 @@
       <c r="L16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <v>0.91891891891891897</v>
       </c>
       <c r="N16" s="22">
@@ -6899,7 +6240,7 @@
       <c r="L17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="36">
         <v>0.73684210526315785</v>
       </c>
       <c r="N17" s="22">
@@ -6967,7 +6308,7 @@
       <c r="L18" s="19">
         <v>13</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="36">
         <v>0.70270270270270274</v>
       </c>
       <c r="N18" s="22">
@@ -7035,7 +6376,7 @@
       <c r="L19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="36">
         <v>0.7857142857142857</v>
       </c>
       <c r="N19" s="22">
@@ -7103,7 +6444,7 @@
       <c r="L20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="36">
         <v>0.56666666666666665</v>
       </c>
       <c r="N20" s="22">
@@ -7171,7 +6512,7 @@
       <c r="L21" s="19">
         <v>6</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <v>0.14705882352941177</v>
       </c>
       <c r="N21" s="22">
@@ -7239,7 +6580,7 @@
       <c r="L22" s="19">
         <v>2</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="36">
         <v>0.88461538461538458</v>
       </c>
       <c r="N22" s="22">
@@ -7307,7 +6648,7 @@
       <c r="L23" s="19">
         <v>3</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="36">
         <v>0.77419354838709675</v>
       </c>
       <c r="N23" s="22">
@@ -7375,7 +6716,7 @@
       <c r="L24" s="19">
         <v>6.333333333333333</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="36">
         <v>0.43333333333333335</v>
       </c>
       <c r="N24" s="22">
@@ -7443,7 +6784,7 @@
       <c r="L25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="36">
         <v>0.51851851851851849</v>
       </c>
       <c r="N25" s="22">
@@ -7511,7 +6852,7 @@
       <c r="L26" s="19">
         <v>3</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="36">
         <v>0.68965517241379315</v>
       </c>
       <c r="N26" s="22">
@@ -7579,7 +6920,7 @@
       <c r="L27" s="19">
         <v>6</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="36">
         <v>0.95833333333333337</v>
       </c>
       <c r="N27" s="22">
@@ -7647,7 +6988,7 @@
       <c r="L28" s="19">
         <v>1</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="36">
         <v>0.30769230769230771</v>
       </c>
       <c r="N28" s="22">
@@ -7715,7 +7056,7 @@
       <c r="L29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="36">
         <v>0.5</v>
       </c>
       <c r="N29" s="22">
@@ -7744,6 +7085,337 @@
       </c>
       <c r="V29" s="28">
         <v>0.18518518518518517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2475</v>
+      </c>
+      <c r="C2" s="4">
+        <v>703</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.45639335177943291</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.8766291751777009</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.1219487859160495</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15.3886663248094</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.52508610797046518</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.8801306417192012</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8.7757457187534346E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>32.819212566340333</v>
+      </c>
+      <c r="L2" s="5">
+        <v>6.7749029754204404</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2.2993691970415409</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1351</v>
+      </c>
+      <c r="O2" s="5">
+        <v>8.52</v>
+      </c>
+      <c r="P2" s="5">
+        <v>10.056603773584911</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.32808080808080808</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.60103626943005184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>402</v>
+      </c>
+      <c r="C3" s="4">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.28987380331169582</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.8862274361597211</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.1399892845591664</v>
+      </c>
+      <c r="G3" s="5">
+        <v>13.474084406528331</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.31186080212832401</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3.2440585924890799</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9.9237898716601061E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>32.689714659852989</v>
+      </c>
+      <c r="L3" s="5">
+        <v>8.2291666666666661</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2.027210419674268</v>
+      </c>
+      <c r="N3" s="4">
+        <v>263</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7.3656716417910451</v>
+      </c>
+      <c r="P3" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.4154228855721393</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.63498098859315588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>304</v>
+      </c>
+      <c r="C4" s="4">
+        <v>101</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.54685795625635458</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.597967438570445</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.1214809936932407</v>
+      </c>
+      <c r="G4" s="5">
+        <v>13.154053074389349</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.63229981024530679</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2.3540646165138459</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.1077163836614501</v>
+      </c>
+      <c r="K4" s="5">
+        <v>21.854285638780929</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5.6481481481481479</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2.582766088187618</v>
+      </c>
+      <c r="N4" s="4">
+        <v>149</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9.2105263157894743</v>
+      </c>
+      <c r="P4" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.51006711409395977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3854</v>
+      </c>
+      <c r="C6" s="4">
+        <v>683</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.30511173659318869</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.9102336404350599</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.10483209366623999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>18.221840026555039</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.34909041143538933</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2.908006959480494</v>
+      </c>
+      <c r="J6" s="5">
+        <v>8.1180196021284678E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>35.821630175887258</v>
+      </c>
+      <c r="L6" s="5">
+        <v>7.6520618556701034</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.439937325853309</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2406</v>
+      </c>
+      <c r="O6" s="5">
+        <v>6.9885832900882203</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9.0731707317073162</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.42527244421380378</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.68121363258520362</v>
       </c>
     </row>
   </sheetData>
